--- a/pred_ohlcv/54_21/2019-10-18 CON ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-18 CON ohlcv.xlsx
@@ -14484,7 +14484,7 @@
         <v>1188101.421289454</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>1335911.977889454</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>1335911.977889454</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>1335911.977889454</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>1237246.907089454</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>865753.7753894536</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>865753.7753894536</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>865753.7753894536</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>865753.7753894536</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>865753.7753894536</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>865753.7753894536</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>865753.7753894536</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>865753.7753894536</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>865753.7753894536</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>865753.7753894536</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>865753.7753894536</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>865753.7753894536</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>1186842.029789454</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>1186842.029789454</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>1073850.837589454</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>1129778.598889454</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>1276810.674889454</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H576">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H577">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H580">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H581">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H582">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H583">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H585">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>1556812.160689454</v>
       </c>
       <c r="H595">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>984217.6994979045</v>
       </c>
       <c r="H626">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>984217.6994979045</v>
       </c>
       <c r="H627">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>984217.6994979045</v>
       </c>
       <c r="H628">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>984217.6994979045</v>
       </c>
       <c r="H629">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>984217.6994979045</v>
       </c>
       <c r="H630">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>546222.9805979045</v>
       </c>
       <c r="H632">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>546222.9805979045</v>
       </c>
       <c r="H633">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>415639.5151979045</v>
       </c>
       <c r="H634">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>415639.5151979045</v>
       </c>
       <c r="H635">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>415639.5151979045</v>
       </c>
       <c r="H636">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>415639.5151979045</v>
       </c>
       <c r="H637">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>415639.5151979045</v>
       </c>
       <c r="H638">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>958150.2528979046</v>
       </c>
       <c r="H640">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>958150.2528979046</v>
       </c>
       <c r="H641">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>958150.2528979046</v>
       </c>
       <c r="H642">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>958150.2528979046</v>
       </c>
       <c r="H643">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>19993918.47857793</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>20851353.10620826</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>20106458.52460827</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>21951727.48237412</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>24444334.3945481</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>23247616.79194809</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>22402755.9977481</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>21651027.1106481</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>21877536.45371497</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>21338528.71501497</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>21338528.71501497</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>21132943.30511497</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>20758491.32551497</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>20402085.23681497</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>23141900.60570431</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>23489410.45060431</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>23651825.02091498</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>24235413.38221497</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>24653965.83361498</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>25164354.06711498</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>26098313.85111497</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>27034890.70895174</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>27752999.56605174</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>27282186.64845174</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>27282186.64845174</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>27811925.51965174</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>35266044.73701497</v>
       </c>
       <c r="H881">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>34369007.94851497</v>
       </c>
       <c r="H882">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>35435171.37681497</v>
       </c>
       <c r="H883">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>33004518.56001497</v>
       </c>
       <c r="H884">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>32041168.35341497</v>
       </c>
       <c r="H885">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>31638032.29611497</v>
       </c>
       <c r="H886">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>30708138.10911497</v>
       </c>
       <c r="H887">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>36019758.75083658</v>
       </c>
       <c r="H1040">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>37029378.71843658</v>
       </c>
       <c r="H1041">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>37029378.71843658</v>
       </c>
       <c r="H1042">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>37029378.71843658</v>
       </c>
       <c r="H1043">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>37029378.71843658</v>
       </c>
       <c r="H1044">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>36930489.33563659</v>
       </c>
       <c r="H1045">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>37306238.66393659</v>
       </c>
       <c r="H1046">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>37665033.92003658</v>
       </c>
       <c r="H1047">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>37486748.57283659</v>
       </c>
       <c r="H1048">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>37486748.57283659</v>
       </c>
       <c r="H1049">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>37729439.76712526</v>
       </c>
       <c r="H1050">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>37519972.95302527</v>
       </c>
       <c r="H1051">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>37428986.02922527</v>
       </c>
       <c r="H1052">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>37875116.76072527</v>
       </c>
       <c r="H1053">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>37875116.76072527</v>
       </c>
       <c r="H1054">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>37875116.76072527</v>
       </c>
       <c r="H1055">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>37438475.89272527</v>
       </c>
       <c r="H1056">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>37268146.63372526</v>
       </c>
       <c r="H1057">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>37268146.63372526</v>
       </c>
       <c r="H1058">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>37414708.11262526</v>
       </c>
       <c r="H1059">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>37414708.11262526</v>
       </c>
       <c r="H1060">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>37414708.11262526</v>
       </c>
       <c r="H1061">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>38156092.45682526</v>
       </c>
       <c r="H1062">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>38156079.45682526</v>
       </c>
       <c r="H1063">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>38156079.45682526</v>
       </c>
       <c r="H1064">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>38156079.45682526</v>
       </c>
       <c r="H1065">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>38156079.45682526</v>
       </c>
       <c r="H1066">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>37281811.09062526</v>
       </c>
       <c r="H1067">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>36622844.33482526</v>
       </c>
       <c r="H1068">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>36584918.48342526</v>
       </c>
       <c r="H1069">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>36584918.48342526</v>
       </c>
       <c r="H1070">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>36845393.91412526</v>
       </c>
       <c r="H1072">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>36703183.70592526</v>
       </c>
       <c r="H1073">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>36692328.21382526</v>
       </c>
       <c r="H1074">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>36774702.81092525</v>
       </c>
       <c r="H1075">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1076" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-18 CON ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-18 CON ohlcv.xlsx
@@ -14588,7 +14588,7 @@
         <v>1335911.977889454</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>1335911.977889454</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>1237246.907089454</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>1237246.907089454</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>1237246.907089454</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>1237246.907089454</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>1237246.907089454</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>865753.7753894536</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>1276810.674889454</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>1269310.729089454</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>1556812.160689454</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>1556812.160689454</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>1556812.160689454</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>880601.3985894538</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>880601.3985894538</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>880601.3985894538</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>880601.3985894538</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>880601.3985894538</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>880601.3985894538</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>1078064.996997904</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>1051458.913197905</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>1051458.913197905</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>1051458.913197905</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>1051458.913197905</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>1051458.913197905</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>1051458.913197905</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>1051458.913197905</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>1051458.913197905</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>1051458.913197905</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>1051458.913197905</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>781852.7473979045</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>808441.9733979045</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>808441.9733979045</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>808441.9733979045</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>993932.3289979046</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>993932.3289979046</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>993932.3289979046</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>993932.3289979046</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>993932.3289979046</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>993932.3289979046</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>984217.6994979045</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>984217.6994979045</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>984217.6994979045</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>984217.6994979045</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>984217.6994979045</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>984217.6994979045</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>818312.2930979045</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>546222.9805979045</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>546222.9805979045</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>415639.5151979045</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>415639.5151979045</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>415639.5151979045</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>415639.5151979045</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>415639.5151979045</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>958150.2528979046</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>958150.2528979046</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>958150.2528979046</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>958150.2528979046</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>958150.2528979046</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>958150.2528979046</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>958150.2528979046</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>958150.2528979046</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>1112697.179197905</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>1021737.870597905</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>1178636.428697905</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>1178636.428697905</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>1475964.129597905</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>1463167.772397905</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>1568625.114097905</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>1568625.114097905</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>19993918.47857793</v>
       </c>
       <c r="H843">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>20851353.10620826</v>
       </c>
       <c r="H844">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>20106458.52460827</v>
       </c>
       <c r="H845">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>21951727.48237412</v>
       </c>
       <c r="H846">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>24444334.3945481</v>
       </c>
       <c r="H847">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>23247616.79194809</v>
       </c>
       <c r="H848">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>22402755.9977481</v>
       </c>
       <c r="H849">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>21651027.1106481</v>
       </c>
       <c r="H850">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>21877536.45371497</v>
       </c>
       <c r="H851">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>21338528.71501497</v>
       </c>
       <c r="H852">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>21338528.71501497</v>
       </c>
       <c r="H853">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>21132943.30511497</v>
       </c>
       <c r="H854">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>20758491.32551497</v>
       </c>
       <c r="H855">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>20402085.23681497</v>
       </c>
       <c r="H856">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>23141900.60570431</v>
       </c>
       <c r="H866">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>23489410.45060431</v>
       </c>
       <c r="H867">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>23651825.02091498</v>
       </c>
       <c r="H868">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>24235413.38221497</v>
       </c>
       <c r="H869">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>24653965.83361498</v>
       </c>
       <c r="H870">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>25164354.06711498</v>
       </c>
       <c r="H871">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>26098313.85111497</v>
       </c>
       <c r="H872">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>27034890.70895174</v>
       </c>
       <c r="H873">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>27752999.56605174</v>
       </c>
       <c r="H874">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>29785496.25955174</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>27305355.80795174</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>32643370.35501497</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>35266044.73701497</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>34369007.94851497</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>35435171.37681497</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>33004518.56001497</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>32041168.35341497</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>31638032.29611497</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>30708138.10911497</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>31227774.79591497</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>31501270.70441497</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>31883531.87211497</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>31451057.71367979</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>32157925.89717979</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>30555770.3578798</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>30846593.92867979</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>31045838.5015798</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>30769021.9408798</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>30704599.06867979</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>28851589.18190075</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>28851589.18190075</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>28539286.87410075</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>28114151.37040075</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -27432,7 +27432,7 @@
         <v>36019758.75083658</v>
       </c>
       <c r="H1040">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1041" spans="1:8">
@@ -27458,7 +27458,7 @@
         <v>37029378.71843658</v>
       </c>
       <c r="H1041">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1042" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>37029378.71843658</v>
       </c>
       <c r="H1042">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>37029378.71843658</v>
       </c>
       <c r="H1043">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>37029378.71843658</v>
       </c>
       <c r="H1044">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>36930489.33563659</v>
       </c>
       <c r="H1045">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>37306238.66393659</v>
       </c>
       <c r="H1046">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>37665033.92003658</v>
       </c>
       <c r="H1047">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>37486748.57283659</v>
       </c>
       <c r="H1048">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>37486748.57283659</v>
       </c>
       <c r="H1049">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>37729439.76712526</v>
       </c>
       <c r="H1050">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>37519972.95302527</v>
       </c>
       <c r="H1051">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>37428986.02922527</v>
       </c>
       <c r="H1052">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>37875116.76072527</v>
       </c>
       <c r="H1053">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>37875116.76072527</v>
       </c>
       <c r="H1054">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>37875116.76072527</v>
       </c>
       <c r="H1055">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>37438475.89272527</v>
       </c>
       <c r="H1056">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>37268146.63372526</v>
       </c>
       <c r="H1057">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>37268146.63372526</v>
       </c>
       <c r="H1058">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>37414708.11262526</v>
       </c>
       <c r="H1059">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>37414708.11262526</v>
       </c>
       <c r="H1060">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>37414708.11262526</v>
       </c>
       <c r="H1061">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>38156092.45682526</v>
       </c>
       <c r="H1062">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>38156079.45682526</v>
       </c>
       <c r="H1063">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>38156079.45682526</v>
       </c>
       <c r="H1064">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>38156079.45682526</v>
       </c>
       <c r="H1065">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>38156079.45682526</v>
       </c>
       <c r="H1066">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>37281811.09062526</v>
       </c>
       <c r="H1067">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>36622844.33482526</v>
       </c>
       <c r="H1068">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>36584918.48342526</v>
       </c>
       <c r="H1069">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>36584918.48342526</v>
       </c>
       <c r="H1070">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>36845393.91412526</v>
       </c>
       <c r="H1072">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>36703183.70592526</v>
       </c>
       <c r="H1073">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>36692328.21382526</v>
       </c>
       <c r="H1074">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>36774702.81092525</v>
       </c>
       <c r="H1075">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
